--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.84788250906419</v>
+        <v>9.705785499999999</v>
       </c>
       <c r="H2">
-        <v>8.84788250906419</v>
+        <v>19.411571</v>
       </c>
       <c r="I2">
-        <v>0.37336895494717</v>
+        <v>0.3626960398572868</v>
       </c>
       <c r="J2">
-        <v>0.37336895494717</v>
+        <v>0.3021399662106912</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.8778600063375</v>
+        <v>47.890007</v>
       </c>
       <c r="N2">
-        <v>47.8778600063375</v>
+        <v>95.78001399999999</v>
       </c>
       <c r="O2">
-        <v>0.2724896296719846</v>
+        <v>0.2671069186198896</v>
       </c>
       <c r="P2">
-        <v>0.2724896296719846</v>
+        <v>0.2091536763465644</v>
       </c>
       <c r="Q2">
-        <v>423.6176801214975</v>
+        <v>464.8101355354984</v>
       </c>
       <c r="R2">
-        <v>423.6176801214975</v>
+        <v>1859.240542141994</v>
       </c>
       <c r="S2">
-        <v>0.1017391682645702</v>
+        <v>0.09687862160191653</v>
       </c>
       <c r="T2">
-        <v>0.1017391682645702</v>
+        <v>0.0631936847041928</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.84788250906419</v>
+        <v>9.705785499999999</v>
       </c>
       <c r="H3">
-        <v>8.84788250906419</v>
+        <v>19.411571</v>
       </c>
       <c r="I3">
-        <v>0.37336895494717</v>
+        <v>0.3626960398572868</v>
       </c>
       <c r="J3">
-        <v>0.37336895494717</v>
+        <v>0.3021399662106912</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.8890265335089</v>
+        <v>24.489942</v>
       </c>
       <c r="N3">
-        <v>22.8890265335089</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O3">
-        <v>0.1302694473571393</v>
+        <v>0.136592858397365</v>
       </c>
       <c r="P3">
-        <v>0.1302694473571393</v>
+        <v>0.1604351844054064</v>
       </c>
       <c r="Q3">
-        <v>202.5194175153395</v>
+        <v>237.694123959441</v>
       </c>
       <c r="R3">
-        <v>202.5194175153395</v>
+        <v>1426.164743756646</v>
       </c>
       <c r="S3">
-        <v>0.04863856742128048</v>
+        <v>0.04954168881351142</v>
       </c>
       <c r="T3">
-        <v>0.04863856742128048</v>
+        <v>0.04847388119525549</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.84788250906419</v>
+        <v>9.705785499999999</v>
       </c>
       <c r="H4">
-        <v>8.84788250906419</v>
+        <v>19.411571</v>
       </c>
       <c r="I4">
-        <v>0.37336895494717</v>
+        <v>0.3626960398572868</v>
       </c>
       <c r="J4">
-        <v>0.37336895494717</v>
+        <v>0.3021399662106912</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.2992224984225</v>
+        <v>20.62554866666667</v>
       </c>
       <c r="N4">
-        <v>20.2992224984225</v>
+        <v>61.876646</v>
       </c>
       <c r="O4">
-        <v>0.1155299677239583</v>
+        <v>0.1150391719340928</v>
       </c>
       <c r="P4">
-        <v>0.1155299677239583</v>
+        <v>0.1351192952518773</v>
       </c>
       <c r="Q4">
-        <v>179.6051356913947</v>
+        <v>200.1871511784776</v>
       </c>
       <c r="R4">
-        <v>179.6051356913947</v>
+        <v>1201.122907070866</v>
       </c>
       <c r="S4">
-        <v>0.04313530331417458</v>
+        <v>0.04172425208895698</v>
       </c>
       <c r="T4">
-        <v>0.04313530331417458</v>
+        <v>0.0408249393018146</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.84788250906419</v>
+        <v>9.705785499999999</v>
       </c>
       <c r="H5">
-        <v>8.84788250906419</v>
+        <v>19.411571</v>
       </c>
       <c r="I5">
-        <v>0.37336895494717</v>
+        <v>0.3626960398572868</v>
       </c>
       <c r="J5">
-        <v>0.37336895494717</v>
+        <v>0.3021399662106912</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8331039061868</v>
+        <v>21.83893633333333</v>
       </c>
       <c r="N5">
-        <v>21.8331039061868</v>
+        <v>65.51680899999999</v>
       </c>
       <c r="O5">
-        <v>0.1242598227489555</v>
+        <v>0.1218068518956912</v>
       </c>
       <c r="P5">
-        <v>0.1242598227489555</v>
+        <v>0.1430682758601985</v>
       </c>
       <c r="Q5">
-        <v>193.1767381701312</v>
+        <v>211.9640315994898</v>
       </c>
       <c r="R5">
-        <v>193.1767381701312</v>
+        <v>1271.784189596939</v>
       </c>
       <c r="S5">
-        <v>0.04639476016169808</v>
+        <v>0.04417886281005026</v>
       </c>
       <c r="T5">
-        <v>0.04639476016169808</v>
+        <v>0.04322664403422222</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.84788250906419</v>
+        <v>9.705785499999999</v>
       </c>
       <c r="H6">
-        <v>8.84788250906419</v>
+        <v>19.411571</v>
       </c>
       <c r="I6">
-        <v>0.37336895494717</v>
+        <v>0.3626960398572868</v>
       </c>
       <c r="J6">
-        <v>0.37336895494717</v>
+        <v>0.3021399662106912</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.7756641212386</v>
+        <v>32.40337933333333</v>
       </c>
       <c r="N6">
-        <v>31.7756641212386</v>
+        <v>97.210138</v>
       </c>
       <c r="O6">
-        <v>0.1808464068325435</v>
+        <v>0.1807301219771816</v>
       </c>
       <c r="P6">
-        <v>0.1808464068325435</v>
+        <v>0.2122766211002732</v>
       </c>
       <c r="Q6">
-        <v>281.1473427922056</v>
+        <v>314.5002492844663</v>
       </c>
       <c r="R6">
-        <v>281.1473427922056</v>
+        <v>1887.001495706798</v>
       </c>
       <c r="S6">
-        <v>0.0675224339250175</v>
+        <v>0.06555009952404815</v>
       </c>
       <c r="T6">
-        <v>0.0675224339250175</v>
+        <v>0.06413725112655623</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.84788250906419</v>
+        <v>9.705785499999999</v>
       </c>
       <c r="H7">
-        <v>8.84788250906419</v>
+        <v>19.411571</v>
       </c>
       <c r="I7">
-        <v>0.37336895494717</v>
+        <v>0.3626960398572868</v>
       </c>
       <c r="J7">
-        <v>0.37336895494717</v>
+        <v>0.3021399662106912</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.0303784479615</v>
+        <v>32.0437125</v>
       </c>
       <c r="N7">
-        <v>31.0303784479615</v>
+        <v>64.087425</v>
       </c>
       <c r="O7">
-        <v>0.1766047256654188</v>
+        <v>0.1787240771757799</v>
       </c>
       <c r="P7">
-        <v>0.1766047256654188</v>
+        <v>0.1399469470356803</v>
       </c>
       <c r="Q7">
-        <v>274.5531427193609</v>
+        <v>311.0094001486687</v>
       </c>
       <c r="R7">
-        <v>274.5531427193609</v>
+        <v>1244.037600594675</v>
       </c>
       <c r="S7">
-        <v>0.06593872186042908</v>
+        <v>0.06482251501880346</v>
       </c>
       <c r="T7">
-        <v>0.06593872186042908</v>
+        <v>0.04228356584864983</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.61269008750774</v>
+        <v>4.987206333333334</v>
       </c>
       <c r="H8">
-        <v>3.61269008750774</v>
+        <v>14.961619</v>
       </c>
       <c r="I8">
-        <v>0.1524507497854908</v>
+        <v>0.1863671917178862</v>
       </c>
       <c r="J8">
-        <v>0.1524507497854908</v>
+        <v>0.2328767238425594</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.8778600063375</v>
+        <v>47.890007</v>
       </c>
       <c r="N8">
-        <v>47.8778600063375</v>
+        <v>95.78001399999999</v>
       </c>
       <c r="O8">
-        <v>0.2724896296719846</v>
+        <v>0.2671069186198896</v>
       </c>
       <c r="P8">
-        <v>0.2724896296719846</v>
+        <v>0.2091536763465644</v>
       </c>
       <c r="Q8">
-        <v>172.9678702559787</v>
+        <v>238.8373462137777</v>
       </c>
       <c r="R8">
-        <v>172.9678702559787</v>
+        <v>1433.024077282666</v>
       </c>
       <c r="S8">
-        <v>0.04154124835226476</v>
+        <v>0.04977996631160678</v>
       </c>
       <c r="T8">
-        <v>0.04154124835226476</v>
+        <v>0.04870702292721493</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.61269008750774</v>
+        <v>4.987206333333334</v>
       </c>
       <c r="H9">
-        <v>3.61269008750774</v>
+        <v>14.961619</v>
       </c>
       <c r="I9">
-        <v>0.1524507497854908</v>
+        <v>0.1863671917178862</v>
       </c>
       <c r="J9">
-        <v>0.1524507497854908</v>
+        <v>0.2328767238425594</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.8890265335089</v>
+        <v>24.489942</v>
       </c>
       <c r="N9">
-        <v>22.8890265335089</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O9">
-        <v>0.1302694473571393</v>
+        <v>0.136592858397365</v>
       </c>
       <c r="P9">
-        <v>0.1302694473571393</v>
+        <v>0.1604351844054064</v>
       </c>
       <c r="Q9">
-        <v>82.69095927030925</v>
+        <v>122.136393845366</v>
       </c>
       <c r="R9">
-        <v>82.69095927030925</v>
+        <v>1099.227544608294</v>
       </c>
       <c r="S9">
-        <v>0.01985967492373741</v>
+        <v>0.0254564274282358</v>
       </c>
       <c r="T9">
-        <v>0.01985967492373741</v>
+        <v>0.03736162013340792</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.61269008750774</v>
+        <v>4.987206333333334</v>
       </c>
       <c r="H10">
-        <v>3.61269008750774</v>
+        <v>14.961619</v>
       </c>
       <c r="I10">
-        <v>0.1524507497854908</v>
+        <v>0.1863671917178862</v>
       </c>
       <c r="J10">
-        <v>0.1524507497854908</v>
+        <v>0.2328767238425594</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.2992224984225</v>
+        <v>20.62554866666667</v>
       </c>
       <c r="N10">
-        <v>20.2992224984225</v>
+        <v>61.876646</v>
       </c>
       <c r="O10">
-        <v>0.1155299677239583</v>
+        <v>0.1150391719340928</v>
       </c>
       <c r="P10">
-        <v>0.1155299677239583</v>
+        <v>0.1351192952518773</v>
       </c>
       <c r="Q10">
-        <v>73.33479990416505</v>
+        <v>102.8638669388749</v>
       </c>
       <c r="R10">
-        <v>73.33479990416505</v>
+        <v>925.7748024498741</v>
       </c>
       <c r="S10">
-        <v>0.01761263020221098</v>
+        <v>0.02143952741090794</v>
       </c>
       <c r="T10">
-        <v>0.01761263020221098</v>
+        <v>0.03146613880617267</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.61269008750774</v>
+        <v>4.987206333333334</v>
       </c>
       <c r="H11">
-        <v>3.61269008750774</v>
+        <v>14.961619</v>
       </c>
       <c r="I11">
-        <v>0.1524507497854908</v>
+        <v>0.1863671917178862</v>
       </c>
       <c r="J11">
-        <v>0.1524507497854908</v>
+        <v>0.2328767238425594</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.8331039061868</v>
+        <v>21.83893633333333</v>
       </c>
       <c r="N11">
-        <v>21.8331039061868</v>
+        <v>65.51680899999999</v>
       </c>
       <c r="O11">
-        <v>0.1242598227489555</v>
+        <v>0.1218068518956912</v>
       </c>
       <c r="P11">
-        <v>0.1242598227489555</v>
+        <v>0.1430682758601985</v>
       </c>
       <c r="Q11">
-        <v>78.87623806140756</v>
+        <v>108.9152815948635</v>
       </c>
       <c r="R11">
-        <v>78.87623806140756</v>
+        <v>980.237534353771</v>
       </c>
       <c r="S11">
-        <v>0.01894350314629044</v>
+        <v>0.02270080091979646</v>
       </c>
       <c r="T11">
-        <v>0.01894350314629044</v>
+        <v>0.03331727136812657</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.61269008750774</v>
+        <v>4.987206333333334</v>
       </c>
       <c r="H12">
-        <v>3.61269008750774</v>
+        <v>14.961619</v>
       </c>
       <c r="I12">
-        <v>0.1524507497854908</v>
+        <v>0.1863671917178862</v>
       </c>
       <c r="J12">
-        <v>0.1524507497854908</v>
+        <v>0.2328767238425594</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>31.7756641212386</v>
+        <v>32.40337933333333</v>
       </c>
       <c r="N12">
-        <v>31.7756641212386</v>
+        <v>97.210138</v>
       </c>
       <c r="O12">
-        <v>0.1808464068325435</v>
+        <v>0.1807301219771816</v>
       </c>
       <c r="P12">
-        <v>0.1808464068325435</v>
+        <v>0.2122766211002732</v>
       </c>
       <c r="Q12">
-        <v>114.795626794774</v>
+        <v>161.6023386326025</v>
       </c>
       <c r="R12">
-        <v>114.795626794774</v>
+        <v>1454.421047693422</v>
       </c>
       <c r="S12">
-        <v>0.02757017031763315</v>
+        <v>0.03368216529171835</v>
       </c>
       <c r="T12">
-        <v>0.02757017031763315</v>
+        <v>0.04943428407019995</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.61269008750774</v>
+        <v>4.987206333333334</v>
       </c>
       <c r="H13">
-        <v>3.61269008750774</v>
+        <v>14.961619</v>
       </c>
       <c r="I13">
-        <v>0.1524507497854908</v>
+        <v>0.1863671917178862</v>
       </c>
       <c r="J13">
-        <v>0.1524507497854908</v>
+        <v>0.2328767238425594</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>31.0303784479615</v>
+        <v>32.0437125</v>
       </c>
       <c r="N13">
-        <v>31.0303784479615</v>
+        <v>64.087425</v>
       </c>
       <c r="O13">
-        <v>0.1766047256654188</v>
+        <v>0.1787240771757799</v>
       </c>
       <c r="P13">
-        <v>0.1766047256654188</v>
+        <v>0.1399469470356803</v>
       </c>
       <c r="Q13">
-        <v>112.1031406305643</v>
+        <v>159.8086059235125</v>
       </c>
       <c r="R13">
-        <v>112.1031406305643</v>
+        <v>958.851635541075</v>
       </c>
       <c r="S13">
-        <v>0.026923522843354</v>
+        <v>0.03330830435562086</v>
       </c>
       <c r="T13">
-        <v>0.026923522843354</v>
+        <v>0.03259038653743741</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.50697010378191</v>
+        <v>5.739525</v>
       </c>
       <c r="H14">
-        <v>5.50697010378191</v>
+        <v>17.218575</v>
       </c>
       <c r="I14">
-        <v>0.2323868643676</v>
+        <v>0.2144806299461176</v>
       </c>
       <c r="J14">
-        <v>0.2323868643676</v>
+        <v>0.2680061118544322</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.8778600063375</v>
+        <v>47.890007</v>
       </c>
       <c r="N14">
-        <v>47.8778600063375</v>
+        <v>95.78001399999999</v>
       </c>
       <c r="O14">
-        <v>0.2724896296719846</v>
+        <v>0.2671069186198896</v>
       </c>
       <c r="P14">
-        <v>0.2724896296719846</v>
+        <v>0.2091536763465644</v>
       </c>
       <c r="Q14">
-        <v>263.6619436879562</v>
+        <v>274.865892426675</v>
       </c>
       <c r="R14">
-        <v>263.6619436879562</v>
+        <v>1649.19535456005</v>
       </c>
       <c r="S14">
-        <v>0.06332301061216103</v>
+        <v>0.05728926016856029</v>
       </c>
       <c r="T14">
-        <v>0.06332301061216103</v>
+        <v>0.05605446357770304</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.50697010378191</v>
+        <v>5.739525</v>
       </c>
       <c r="H15">
-        <v>5.50697010378191</v>
+        <v>17.218575</v>
       </c>
       <c r="I15">
-        <v>0.2323868643676</v>
+        <v>0.2144806299461176</v>
       </c>
       <c r="J15">
-        <v>0.2323868643676</v>
+        <v>0.2680061118544322</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>22.8890265335089</v>
+        <v>24.489942</v>
       </c>
       <c r="N15">
-        <v>22.8890265335089</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O15">
-        <v>0.1302694473571393</v>
+        <v>0.136592858397365</v>
       </c>
       <c r="P15">
-        <v>0.1302694473571393</v>
+        <v>0.1604351844054064</v>
       </c>
       <c r="Q15">
-        <v>126.0491848247044</v>
+        <v>140.56063435755</v>
       </c>
       <c r="R15">
-        <v>126.0491848247044</v>
+        <v>1265.04570921795</v>
       </c>
       <c r="S15">
-        <v>0.03027290839422574</v>
+        <v>0.02929652231520768</v>
       </c>
       <c r="T15">
-        <v>0.03027290839422574</v>
+        <v>0.0429976099771418</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.50697010378191</v>
+        <v>5.739525</v>
       </c>
       <c r="H16">
-        <v>5.50697010378191</v>
+        <v>17.218575</v>
       </c>
       <c r="I16">
-        <v>0.2323868643676</v>
+        <v>0.2144806299461176</v>
       </c>
       <c r="J16">
-        <v>0.2323868643676</v>
+        <v>0.2680061118544322</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.2992224984225</v>
+        <v>20.62554866666667</v>
       </c>
       <c r="N16">
-        <v>20.2992224984225</v>
+        <v>61.876646</v>
       </c>
       <c r="O16">
-        <v>0.1155299677239583</v>
+        <v>0.1150391719340928</v>
       </c>
       <c r="P16">
-        <v>0.1155299677239583</v>
+        <v>0.1351192952518773</v>
       </c>
       <c r="Q16">
-        <v>111.7872114288298</v>
+        <v>118.38085221105</v>
       </c>
       <c r="R16">
-        <v>111.7872114288298</v>
+        <v>1065.42766989945</v>
       </c>
       <c r="S16">
-        <v>0.0268476469398607</v>
+        <v>0.02467367406490395</v>
       </c>
       <c r="T16">
-        <v>0.0268476469398607</v>
+        <v>0.03621279695696666</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.50697010378191</v>
+        <v>5.739525</v>
       </c>
       <c r="H17">
-        <v>5.50697010378191</v>
+        <v>17.218575</v>
       </c>
       <c r="I17">
-        <v>0.2323868643676</v>
+        <v>0.2144806299461176</v>
       </c>
       <c r="J17">
-        <v>0.2323868643676</v>
+        <v>0.2680061118544322</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.8331039061868</v>
+        <v>21.83893633333333</v>
       </c>
       <c r="N17">
-        <v>21.8331039061868</v>
+        <v>65.51680899999999</v>
       </c>
       <c r="O17">
-        <v>0.1242598227489555</v>
+        <v>0.1218068518956912</v>
       </c>
       <c r="P17">
-        <v>0.1242598227489555</v>
+        <v>0.1430682758601985</v>
       </c>
       <c r="Q17">
-        <v>120.2342504841347</v>
+        <v>125.345121058575</v>
       </c>
       <c r="R17">
-        <v>120.2342504841347</v>
+        <v>1128.106089527175</v>
       </c>
       <c r="S17">
-        <v>0.02887635057550353</v>
+        <v>0.02612521032634131</v>
       </c>
       <c r="T17">
-        <v>0.02887635057550353</v>
+        <v>0.03834317234300912</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.50697010378191</v>
+        <v>5.739525</v>
       </c>
       <c r="H18">
-        <v>5.50697010378191</v>
+        <v>17.218575</v>
       </c>
       <c r="I18">
-        <v>0.2323868643676</v>
+        <v>0.2144806299461176</v>
       </c>
       <c r="J18">
-        <v>0.2323868643676</v>
+        <v>0.2680061118544322</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>31.7756641212386</v>
+        <v>32.40337933333333</v>
       </c>
       <c r="N18">
-        <v>31.7756641212386</v>
+        <v>97.210138</v>
       </c>
       <c r="O18">
-        <v>0.1808464068325435</v>
+        <v>0.1807301219771816</v>
       </c>
       <c r="P18">
-        <v>0.1808464068325435</v>
+        <v>0.2122766211002732</v>
       </c>
       <c r="Q18">
-        <v>174.9876323434764</v>
+        <v>185.98000576815</v>
       </c>
       <c r="R18">
-        <v>174.9876323434764</v>
+        <v>1673.82005191335</v>
       </c>
       <c r="S18">
-        <v>0.04202632941596209</v>
+        <v>0.03876311041190458</v>
       </c>
       <c r="T18">
-        <v>0.04202632941596209</v>
+        <v>0.05689143185868073</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.50697010378191</v>
+        <v>5.739525</v>
       </c>
       <c r="H19">
-        <v>5.50697010378191</v>
+        <v>17.218575</v>
       </c>
       <c r="I19">
-        <v>0.2323868643676</v>
+        <v>0.2144806299461176</v>
       </c>
       <c r="J19">
-        <v>0.2323868643676</v>
+        <v>0.2680061118544322</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>31.0303784479615</v>
+        <v>32.0437125</v>
       </c>
       <c r="N19">
-        <v>31.0303784479615</v>
+        <v>64.087425</v>
       </c>
       <c r="O19">
-        <v>0.1766047256654188</v>
+        <v>0.1787240771757799</v>
       </c>
       <c r="P19">
-        <v>0.1766047256654188</v>
+        <v>0.1399469470356803</v>
       </c>
       <c r="Q19">
-        <v>170.8833664219625</v>
+        <v>183.9156889865625</v>
       </c>
       <c r="R19">
-        <v>170.8833664219625</v>
+        <v>1103.494133919375</v>
       </c>
       <c r="S19">
-        <v>0.04104061842988688</v>
+        <v>0.03833285265919981</v>
       </c>
       <c r="T19">
-        <v>0.04104061842988688</v>
+        <v>0.03750663714093083</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.72988150117391</v>
+        <v>6.327592</v>
       </c>
       <c r="H20">
-        <v>5.72988150117391</v>
+        <v>12.655184</v>
       </c>
       <c r="I20">
-        <v>0.2417934308997393</v>
+        <v>0.2364561384787094</v>
       </c>
       <c r="J20">
-        <v>0.2417934308997393</v>
+        <v>0.1969771980923172</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>47.8778600063375</v>
+        <v>47.890007</v>
       </c>
       <c r="N20">
-        <v>47.8778600063375</v>
+        <v>95.78001399999999</v>
       </c>
       <c r="O20">
-        <v>0.2724896296719846</v>
+        <v>0.2671069186198896</v>
       </c>
       <c r="P20">
-        <v>0.2724896296719846</v>
+        <v>0.2091536763465644</v>
       </c>
       <c r="Q20">
-        <v>274.3344643661075</v>
+        <v>303.028425173144</v>
       </c>
       <c r="R20">
-        <v>274.3344643661075</v>
+        <v>1212.113700692576</v>
       </c>
       <c r="S20">
-        <v>0.06588620244298857</v>
+        <v>0.06315907053780595</v>
       </c>
       <c r="T20">
-        <v>0.06588620244298857</v>
+        <v>0.04119850513745361</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.72988150117391</v>
+        <v>6.327592</v>
       </c>
       <c r="H21">
-        <v>5.72988150117391</v>
+        <v>12.655184</v>
       </c>
       <c r="I21">
-        <v>0.2417934308997393</v>
+        <v>0.2364561384787094</v>
       </c>
       <c r="J21">
-        <v>0.2417934308997393</v>
+        <v>0.1969771980923172</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>22.8890265335089</v>
+        <v>24.489942</v>
       </c>
       <c r="N21">
-        <v>22.8890265335089</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O21">
-        <v>0.1302694473571393</v>
+        <v>0.136592858397365</v>
       </c>
       <c r="P21">
-        <v>0.1302694473571393</v>
+        <v>0.1604351844054064</v>
       </c>
       <c r="Q21">
-        <v>131.1514097142314</v>
+        <v>154.962361079664</v>
       </c>
       <c r="R21">
-        <v>131.1514097142314</v>
+        <v>929.7741664779842</v>
       </c>
       <c r="S21">
-        <v>0.03149829661789569</v>
+        <v>0.03229821984041006</v>
       </c>
       <c r="T21">
-        <v>0.03149829661789569</v>
+        <v>0.03160207309960118</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.72988150117391</v>
+        <v>6.327592</v>
       </c>
       <c r="H22">
-        <v>5.72988150117391</v>
+        <v>12.655184</v>
       </c>
       <c r="I22">
-        <v>0.2417934308997393</v>
+        <v>0.2364561384787094</v>
       </c>
       <c r="J22">
-        <v>0.2417934308997393</v>
+        <v>0.1969771980923172</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>20.2992224984225</v>
+        <v>20.62554866666667</v>
       </c>
       <c r="N22">
-        <v>20.2992224984225</v>
+        <v>61.876646</v>
       </c>
       <c r="O22">
-        <v>0.1155299677239583</v>
+        <v>0.1150391719340928</v>
       </c>
       <c r="P22">
-        <v>0.1155299677239583</v>
+        <v>0.1351192952518773</v>
       </c>
       <c r="Q22">
-        <v>116.3121394819243</v>
+        <v>130.5100567388107</v>
       </c>
       <c r="R22">
-        <v>116.3121394819243</v>
+        <v>783.060340432864</v>
       </c>
       <c r="S22">
-        <v>0.02793438726771202</v>
+        <v>0.02720171836932389</v>
       </c>
       <c r="T22">
-        <v>0.02793438726771202</v>
+        <v>0.02661542018692332</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.72988150117391</v>
+        <v>6.327592</v>
       </c>
       <c r="H23">
-        <v>5.72988150117391</v>
+        <v>12.655184</v>
       </c>
       <c r="I23">
-        <v>0.2417934308997393</v>
+        <v>0.2364561384787094</v>
       </c>
       <c r="J23">
-        <v>0.2417934308997393</v>
+        <v>0.1969771980923172</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>21.8331039061868</v>
+        <v>21.83893633333333</v>
       </c>
       <c r="N23">
-        <v>21.8331039061868</v>
+        <v>65.51680899999999</v>
       </c>
       <c r="O23">
-        <v>0.1242598227489555</v>
+        <v>0.1218068518956912</v>
       </c>
       <c r="P23">
-        <v>0.1242598227489555</v>
+        <v>0.1430682758601985</v>
       </c>
       <c r="Q23">
-        <v>125.1010981852676</v>
+        <v>138.1878788313093</v>
       </c>
       <c r="R23">
-        <v>125.1010981852676</v>
+        <v>829.1272729878559</v>
       </c>
       <c r="S23">
-        <v>0.03004520886546342</v>
+        <v>0.02880197783950321</v>
       </c>
       <c r="T23">
-        <v>0.03004520886546342</v>
+        <v>0.02818118811484061</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.72988150117391</v>
+        <v>6.327592</v>
       </c>
       <c r="H24">
-        <v>5.72988150117391</v>
+        <v>12.655184</v>
       </c>
       <c r="I24">
-        <v>0.2417934308997393</v>
+        <v>0.2364561384787094</v>
       </c>
       <c r="J24">
-        <v>0.2417934308997393</v>
+        <v>0.1969771980923172</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>31.7756641212386</v>
+        <v>32.40337933333333</v>
       </c>
       <c r="N24">
-        <v>31.7756641212386</v>
+        <v>97.210138</v>
       </c>
       <c r="O24">
-        <v>0.1808464068325435</v>
+        <v>0.1807301219771816</v>
       </c>
       <c r="P24">
-        <v>0.1808464068325435</v>
+        <v>0.2122766211002732</v>
       </c>
       <c r="Q24">
-        <v>182.0707900358006</v>
+        <v>205.0353638425653</v>
       </c>
       <c r="R24">
-        <v>182.0707900358006</v>
+        <v>1230.212183055392</v>
       </c>
       <c r="S24">
-        <v>0.04372747317393074</v>
+        <v>0.04273474674951047</v>
       </c>
       <c r="T24">
-        <v>0.04372747317393074</v>
+        <v>0.04181365404483627</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.72988150117391</v>
+        <v>6.327592</v>
       </c>
       <c r="H25">
-        <v>5.72988150117391</v>
+        <v>12.655184</v>
       </c>
       <c r="I25">
-        <v>0.2417934308997393</v>
+        <v>0.2364561384787094</v>
       </c>
       <c r="J25">
-        <v>0.2417934308997393</v>
+        <v>0.1969771980923172</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>31.0303784479615</v>
+        <v>32.0437125</v>
       </c>
       <c r="N25">
-        <v>31.0303784479615</v>
+        <v>64.087425</v>
       </c>
       <c r="O25">
-        <v>0.1766047256654188</v>
+        <v>0.1787240771757799</v>
       </c>
       <c r="P25">
-        <v>0.1766047256654188</v>
+        <v>0.1399469470356803</v>
       </c>
       <c r="Q25">
-        <v>177.8003914434002</v>
+        <v>202.7595388653</v>
       </c>
       <c r="R25">
-        <v>177.8003914434002</v>
+        <v>811.0381554611999</v>
       </c>
       <c r="S25">
-        <v>0.04270186253174887</v>
+        <v>0.04226040514215575</v>
       </c>
       <c r="T25">
-        <v>0.04270186253174887</v>
+        <v>0.02756635750866222</v>
       </c>
     </row>
   </sheetData>
